--- a/Lab 3 - Vibrations/matplotlib/dmf_results.xlsx
+++ b/Lab 3 - Vibrations/matplotlib/dmf_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>dmf</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Amplitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,9 @@
       <c r="C2" t="n">
         <v>1.039647887323944</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.845375</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +483,9 @@
       <c r="C3" t="n">
         <v>1.128692152917505</v>
       </c>
+      <c r="D3" t="n">
+        <v>2.003428571428571</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +499,9 @@
       <c r="C4" t="n">
         <v>1.559769526248399</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.768590909090909</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +515,9 @@
       <c r="C5" t="n">
         <v>1.242669932639314</v>
       </c>
+      <c r="D5" t="n">
+        <v>2.205739130434782</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +531,9 @@
       <c r="C6" t="n">
         <v>0.9588419405320813</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.701944444444444</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +547,9 @@
       <c r="C7" t="n">
         <v>0.7019595835884876</v>
       </c>
+      <c r="D7" t="n">
+        <v>1.245978260869566</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +563,9 @@
       <c r="C8" t="n">
         <v>0.586846295162278</v>
       </c>
+      <c r="D8" t="n">
+        <v>1.041652173913044</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -553,6 +579,9 @@
       <c r="C9" t="n">
         <v>0.9437183098591548</v>
       </c>
+      <c r="D9" t="n">
+        <v>1.6751</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -566,6 +595,9 @@
       <c r="C10" t="n">
         <v>1.308779342723005</v>
       </c>
+      <c r="D10" t="n">
+        <v>2.323083333333333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -579,6 +611,9 @@
       <c r="C11" t="n">
         <v>1.517589984350548</v>
       </c>
+      <c r="D11" t="n">
+        <v>2.693722222222222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -592,6 +627,9 @@
       <c r="C12" t="n">
         <v>2.080947503201025</v>
       </c>
+      <c r="D12" t="n">
+        <v>3.693681818181818</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -605,6 +643,9 @@
       <c r="C13" t="n">
         <v>1.002852112676056</v>
       </c>
+      <c r="D13" t="n">
+        <v>1.7800625</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -618,6 +659,9 @@
       <c r="C14" t="n">
         <v>0.7129107981220656</v>
       </c>
+      <c r="D14" t="n">
+        <v>1.265416666666666</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -631,6 +675,9 @@
       <c r="C15" t="n">
         <v>0.5326612305411416</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.9454736842105262</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -643,6 +690,9 @@
       </c>
       <c r="C16" t="n">
         <v>0.4284372904091214</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7604761904761905</v>
       </c>
     </row>
   </sheetData>
